--- a/python/data/requirement_analysis.xlsx
+++ b/python/data/requirement_analysis.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfmendoza\Desktop\Development\Collage\data-structures\recommendation-engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfmendoza\Desktop\Development\Collage\data-structures\recommendation-engine\python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19709830-F237-4009-97A1-953619A986CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55882E5D-33BD-47B6-900C-EC979CF9F56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Research" sheetId="3" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="183">
   <si>
     <t>AnnotatedToken</t>
   </si>
@@ -391,13 +392,349 @@
   </si>
   <si>
     <t>Algoritmo</t>
+  </si>
+  <si>
+    <t>Clasificador Bayesiano Ingenuo</t>
+  </si>
+  <si>
+    <t>Introducción</t>
+  </si>
+  <si>
+    <t>El Clasificador Bayesiano Ingenuo (Naive Bayes Classifier) es un algoritmo de clasificación basado en el Teorema de Bayes con una suposición de independencia ingenua (es decir, asume que las características son independientes entre sí). Es uno de los algoritmos más simples y efectivos para tareas de clasificación, especialmente cuando se trabaja con grandes conjuntos de datos.</t>
+  </si>
+  <si>
+    <t>Teorema de Bayes</t>
+  </si>
+  <si>
+    <t>El Teorema de Bayes nos permite actualizar nuestras creencias sobre un evento basado en nueva evidencia. Se expresa matemáticamente como:</t>
+  </si>
+  <si>
+    <t>P(A∣B)=P(B∣A)⋅P(A)P(B)P(A|B) = \frac{P(B|A) \cdot P(A)}{P(B)}P(A∣B)=P(B)P(B∣A)⋅P(A)​</t>
+  </si>
+  <si>
+    <t>Donde:</t>
+  </si>
+  <si>
+    <t>P(A∣B)P(A|B)P(A∣B) es la probabilidad posterior de AAA dado BBB.</t>
+  </si>
+  <si>
+    <t>P(B∣A)P(B|A)P(B∣A) es la probabilidad de BBB dado AAA (probabilidad verosímil).</t>
+  </si>
+  <si>
+    <t>P(A)P(A)P(A) es la probabilidad previa de AAA.</t>
+  </si>
+  <si>
+    <t>P(B)P(B)P(B) es la probabilidad de BBB.</t>
+  </si>
+  <si>
+    <t>Clasificación con Naive Bayes</t>
+  </si>
+  <si>
+    <t>Para clasificar un conjunto de datos, el clasificador Bayesiano ingenuo sigue estos pasos:</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Entrenamiento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Calcular las probabilidades previas para cada clase.</t>
+  </si>
+  <si>
+    <t>Calcular las probabilidades condicionales de cada característica dada una clase.</t>
+  </si>
+  <si>
+    <r>
+      <t>2. Clasificación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Para una nueva instancia, calcular la probabilidad posterior para cada clase.</t>
+  </si>
+  <si>
+    <t>Asignar la clase con la mayor probabilidad posterior.</t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
+  </si>
+  <si>
+    <t>Supongamos que queremos clasificar si un correo electrónico es "spam" o "no spam" basado en las palabras contenidas en el correo.</t>
+  </si>
+  <si>
+    <t>Paso 1: Entrenamiento</t>
+  </si>
+  <si>
+    <t>Contamos el número de correos spam y no spam.</t>
+  </si>
+  <si>
+    <t>Calculamos la probabilidad de que una palabra aparezca en un correo spam y no spam.</t>
+  </si>
+  <si>
+    <t>Paso 2: Clasificación</t>
+  </si>
+  <si>
+    <t>Para un nuevo correo, multiplicamos las probabilidades de aparición de cada palabra dado que el correo es spam o no spam.</t>
+  </si>
+  <si>
+    <t>Combinamos estas probabilidades con la probabilidad previa de ser spam o no spam.</t>
+  </si>
+  <si>
+    <t>Escogemos la categoría con la probabilidad más alta.</t>
+  </si>
+  <si>
+    <t>Fórmula de Clasificación</t>
+  </si>
+  <si>
+    <t>Para una instancia con características x1,x2,...,xnx_1, x_2, ..., x_nx1​,x2​,...,xn​, la probabilidad de que pertenezca a una clase CkC_kCk​ es:</t>
+  </si>
+  <si>
+    <t>P(Ck∣x1,x2,...,xn)∝P(Ck)∏i=1nP(xi∣Ck)P(C_k | x_1, x_2, ..., x_n) \propto P(C_k) \prod_{i=1}^{n} P(x_i | C_k)P(Ck​∣x1​,x2​,...,xn​)∝P(Ck​)∏i=1n​P(xi​∣Ck​)</t>
+  </si>
+  <si>
+    <t>P(Ck)P(C_k)P(Ck​) es la probabilidad previa de la clase CkC_kCk​.</t>
+  </si>
+  <si>
+    <t>P(xi∣Ck)P(x_i | C_k)P(xi​∣Ck​) es la probabilidad condicional de la característica xix_ixi​ dado que la clase es CkC_kCk​.</t>
+  </si>
+  <si>
+    <t>Ejemplo Detallado</t>
+  </si>
+  <si>
+    <t>Imaginemos que tenemos los siguientes correos:</t>
+  </si>
+  <si>
+    <r>
+      <t>Correo 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "ganar dinero rápido" (spam)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Correo 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "ganar una oferta especial" (spam)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Correo 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "reunión importante mañana" (no spam)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Correo 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "la oferta del día" (no spam)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Probabilidades Previas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>P(spam)=24=0.5P(spam) = \frac{2}{4} = 0.5P(spam)=42​=0.5</t>
+  </si>
+  <si>
+    <t>P(no spam)=24=0.5P(no \, spam) = \frac{2}{4} = 0.5P(nospam)=42​=0.5</t>
+  </si>
+  <si>
+    <r>
+      <t>Probabilidades Condicionales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ejemplo para la palabra "ganar"):</t>
+    </r>
+  </si>
+  <si>
+    <t>P(ganar∣spam)=22=1P(ganar | spam) = \frac{2}{2} = 1P(ganar∣spam)=22​=1</t>
+  </si>
+  <si>
+    <t>P(ganar∣no spam)=02=0P(ganar | no \, spam) = \frac{0}{2} = 0P(ganar∣nospam)=20​=0</t>
+  </si>
+  <si>
+    <t>Para clasificar un nuevo correo "ganar oferta", calculamos:</t>
+  </si>
+  <si>
+    <r>
+      <t>Para Spam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: P(spam∣ganar,oferta)∝P(spam)⋅P(ganar∣spam)⋅P(oferta∣spam)P(spam | ganar, oferta) \propto P(spam) \cdot P(ganar | spam) \cdot P(oferta | spam)P(spam∣ganar,oferta)∝P(spam)⋅P(ganar∣spam)⋅P(oferta∣spam) P(spam∣ganar,oferta)∝0.5⋅1⋅0.5=0.25P(spam | ganar, oferta) \propto 0.5 \cdot 1 \cdot 0.5 = 0.25P(spam∣ganar,oferta)∝0.5⋅1⋅0.5=0.25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Para No Spam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: P(no spam∣ganar,oferta)∝P(no spam)⋅P(ganar∣no spam)⋅P(oferta∣no spam)P(no \, spam | ganar, oferta) \propto P(no \, spam) \cdot P(ganar | no \, spam) \cdot P(oferta | no \, spam)P(nospam∣ganar,oferta)∝P(nospam)⋅P(ganar∣nospam)⋅P(oferta∣nospam) P(no spam∣ganar,oferta)∝0.5⋅0⋅0.5=0P(no \, spam | ganar, oferta) \propto 0.5 \cdot 0 \cdot 0.5 = 0P(nospam∣ganar,oferta)∝0.5⋅0⋅0.5=0</t>
+    </r>
+  </si>
+  <si>
+    <t>Como P(spam∣ganar,oferta)P(spam | ganar, oferta)P(spam∣ganar,oferta) es mayor, clasificamos el correo como spam.</t>
+  </si>
+  <si>
+    <t>Ventajas y Desventajas</t>
+  </si>
+  <si>
+    <r>
+      <t>Ventajas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Simple y rápido de entrenar.</t>
+  </si>
+  <si>
+    <t>Funciona bien con grandes conjuntos de datos.</t>
+  </si>
+  <si>
+    <t>Eficiente en términos de memoria.</t>
+  </si>
+  <si>
+    <r>
+      <t>Desventajas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>La suposición de independencia rara vez se cumple en la realidad.</t>
+  </si>
+  <si>
+    <t>Sensible a las características irrelevantes.</t>
+  </si>
+  <si>
+    <t>Aplicaciones</t>
+  </si>
+  <si>
+    <t>Filtrado de spam.</t>
+  </si>
+  <si>
+    <t>Análisis de sentimientos.</t>
+  </si>
+  <si>
+    <t>Diagnóstico médico.</t>
+  </si>
+  <si>
+    <t>Clasificación de textos.</t>
+  </si>
+  <si>
+    <t>Conclusión</t>
+  </si>
+  <si>
+    <t>El Clasificador Bayesiano Ingenuo es una herramienta poderosa y eficiente para problemas de clasificación, especialmente cuando se necesita rapidez y se dispone de grandes volúmenes de datos. A pesar de su suposición ingenua de independencia, a menudo proporciona buenos resultados en la práctica.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +746,38 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -463,13 +832,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,11 +1221,394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6696EB78-297B-464E-B798-EA83A5C288D4}">
+  <dimension ref="B2:B110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,12 +3354,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7728833-7190-4721-B8ED-BBCC49C5B5BF}">
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
